--- a/documents/analyza rizik.xlsx
+++ b/documents/analyza rizik.xlsx
@@ -24,9 +24,6 @@
     <t>kategória</t>
   </si>
   <si>
-    <t>pravdepodobnost</t>
-  </si>
-  <si>
     <t>dopad</t>
   </si>
   <si>
@@ -69,18 +66,12 @@
     <t>Náhla zmena požiadavok na software v jeho neskorom vývoji</t>
   </si>
   <si>
-    <t>Zla čitatelnosť kódu a nedostatočné komentovanie</t>
-  </si>
-  <si>
     <t>Zlyhanie hardware-u</t>
   </si>
   <si>
     <t>Chybne vymyslené algoritmy</t>
   </si>
   <si>
-    <t>veľkost software</t>
-  </si>
-  <si>
     <t>projektový tým</t>
   </si>
   <si>
@@ -108,15 +99,9 @@
     <t>Konzultácie v teame a so zadávateľom</t>
   </si>
   <si>
-    <t>Teamové schôdze, tyždenné evaluácie</t>
-  </si>
-  <si>
     <t>Dôkladná komunikácia so zadávateľom</t>
   </si>
   <si>
-    <t>Časté a dôkladné štúdium dokumentáci, konzultovanie so skúsenejšími programátormi v teame</t>
-  </si>
-  <si>
     <t>Dôkladné testovanie, pravidelná sebareflexia</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>Štúdium Java Enterprise a jej blízkych technológií, ak je predpoklad, že problém si vyžaduje štúdium vyhradíme mu dostatočnú rezervu</t>
   </si>
   <si>
-    <t>Poučovanie sa na predošlích úlohách, predvídanie výkonnosti teamu</t>
-  </si>
-  <si>
     <t>podrobná analýza problémov, teamové konzultácie</t>
   </si>
   <si>
@@ -148,6 +130,24 @@
   </si>
   <si>
     <t>Review kódu</t>
+  </si>
+  <si>
+    <t>pravdepodobnosť</t>
+  </si>
+  <si>
+    <t>veľkosť software</t>
+  </si>
+  <si>
+    <t>Teamové schôdze, týždenné evaluácie</t>
+  </si>
+  <si>
+    <t>Časté a dôkladné štúdium dokumentácií, konzultovanie so skúsenejšími programátormi v teame</t>
+  </si>
+  <si>
+    <t>Poučovanie sa na predošlých úlohách, predvídanie výkonnosti teamu</t>
+  </si>
+  <si>
+    <t>Zla čitateľnosť kódu a nedostatočné komentovanie</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,23 +577,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12">
         <v>0.1</v>
@@ -602,17 +602,17 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12">
         <v>0.25</v>
@@ -621,17 +621,17 @@
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="12">
         <v>0.2</v>
@@ -640,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="44.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="12">
         <v>0.4</v>
@@ -658,15 +658,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12">
         <v>0.4</v>
@@ -675,15 +675,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="12">
         <v>0.3</v>
@@ -692,15 +692,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="12">
         <v>0.25</v>
@@ -709,15 +709,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12">
         <v>0.8</v>
@@ -726,15 +726,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="12">
         <v>0.01</v>
@@ -743,15 +743,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>0.6</v>
@@ -760,15 +760,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12">
         <v>0.3</v>
@@ -777,15 +777,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>
@@ -794,15 +794,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
       <c r="A14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12">
         <v>0.35</v>
@@ -811,15 +811,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12">
         <v>0.15</v>
@@ -828,15 +828,15 @@
         <v>2</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12">
         <v>0.1</v>
@@ -845,15 +845,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12">
         <v>0.6</v>
@@ -862,15 +862,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="12">
         <v>0.2</v>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" customHeight="1">

--- a/documents/analyza rizik.xlsx
+++ b/documents/analyza rizik.xlsx
@@ -72,9 +72,6 @@
     <t>Chybne vymyslené algoritmy</t>
   </si>
   <si>
-    <t>projektový tým</t>
-  </si>
-  <si>
     <t>programátori</t>
   </si>
   <si>
@@ -148,13 +145,16 @@
   </si>
   <si>
     <t>Zla čitateľnosť kódu a nedostatočné komentovanie</t>
+  </si>
+  <si>
+    <t>projektový team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,14 +166,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,12 +243,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -590,10 +576,10 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="12">
         <v>0.1</v>
@@ -602,17 +588,17 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="12">
         <v>0.25</v>
@@ -621,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -631,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C4" s="12">
         <v>0.2</v>
@@ -640,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -649,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C5" s="12">
         <v>0.4</v>
@@ -658,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -666,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12">
         <v>0.4</v>
@@ -675,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -683,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12">
         <v>0.3</v>
@@ -692,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -700,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="12">
         <v>0.25</v>
@@ -709,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -717,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12">
         <v>0.8</v>
@@ -726,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -734,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12">
         <v>0.01</v>
@@ -743,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
@@ -751,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12">
         <v>0.6</v>
@@ -760,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
@@ -768,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12">
         <v>0.3</v>
@@ -777,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -785,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>
@@ -794,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -802,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12">
         <v>0.35</v>
@@ -811,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -819,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="12">
         <v>0.15</v>
@@ -828,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -836,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="12">
         <v>0.1</v>
@@ -845,15 +831,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12">
         <v>0.6</v>
@@ -862,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -870,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C18" s="12">
         <v>0.2</v>
@@ -879,20 +865,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:C19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
